--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1611.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1611.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.140338818211144</v>
+        <v>0.5738271474838257</v>
       </c>
       <c r="B1">
-        <v>2.310142928343104</v>
+        <v>1.268808603286743</v>
       </c>
       <c r="C1">
-        <v>4.883836461585243</v>
+        <v>5.325573921203613</v>
       </c>
       <c r="D1">
-        <v>2.44891953049724</v>
+        <v>3.567200660705566</v>
       </c>
       <c r="E1">
-        <v>1.083565318317419</v>
+        <v>0.8273953795433044</v>
       </c>
     </row>
   </sheetData>
